--- a/20231204-chennai-cyclone.xlsx
+++ b/20231204-chennai-cyclone.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020\git\checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA69459-05D8-4195-AC3F-8F572E640068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FA79D8-6D38-445C-8F9A-40A4447D47D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Chennai-seasons" sheetId="4" r:id="rId1"/>
     <sheet name="before-rainy-season" sheetId="3" r:id="rId2"/>
     <sheet name="before-cyclone" sheetId="1" r:id="rId3"/>
-    <sheet name="questions-to-think" sheetId="2" r:id="rId4"/>
+    <sheet name="points-to-think" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>Items</t>
   </si>
@@ -254,6 +254,18 @@
     <t>Items in the refrigerator might spoil. 
 What items need to kept?
 What items needs to consumed early if power supply is not available for more than 24 hours?</t>
+  </si>
+  <si>
+    <t>it seems in many areas, ground floor is partially or fully submerged in water</t>
+  </si>
+  <si>
+    <t>What are the alternative options I have?
+What could I do as an individual?
+What could we do as a society?
+Live in Chennai or move out from Chennai?</t>
+  </si>
+  <si>
+    <t>North Chennai area - pulianthoppu, after 4 days still no power…some other areas too…Water did not go out still….</t>
   </si>
 </sst>
 </file>
@@ -942,11 +954,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61D3C0-40CC-4373-B932-679BD975E90D}">
-  <dimension ref="B1:C11"/>
+  <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1010,13 +1020,36 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="1" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
     </row>
